--- a/tests/sbml/fixtures/static-model.xlsx
+++ b/tests/sbml/fixtures/static-model.xlsx
@@ -1699,7 +1699,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observable' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observable' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -1783,7 +1783,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Function' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Function' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -1897,7 +1897,7 @@
     <row r="1" ht="13.5" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4121,7 +4121,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='RateLaw' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='RateLaw' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4274,7 +4274,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjective' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjective' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4374,7 +4374,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjReaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjReaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4467,7 +4467,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjSpecies' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjSpecies' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4568,7 +4568,7 @@
     <row r="1" ht="15.75" customFormat="1" customHeight="1" s="3">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Parameter' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Parameter' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4771,7 +4771,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='StopCondition' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='StopCondition' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4852,7 +4852,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observation' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observation' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5012,7 +5012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
@@ -5033,7 +5033,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Model' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Model' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
     </row>
@@ -5196,7 +5196,7 @@
     <row r="1" ht="15" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='ObservationSet' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='ObservationSet' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5279,7 +5279,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Conclusion' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Conclusion' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5437,7 +5437,7 @@
     <row r="1" ht="15.75" customFormat="1" customHeight="1" s="3">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reference' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reference' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5564,7 +5564,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Author' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Author' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5659,7 +5659,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Change' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Change' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5761,7 +5761,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
@@ -5782,7 +5782,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Taxon' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Taxon' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
     </row>
@@ -5860,7 +5860,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
@@ -5881,7 +5881,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Environment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Environment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
     </row>
@@ -5958,7 +5958,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
@@ -5983,7 +5983,7 @@
     <row r="1" ht="15.75" customFormat="1" customHeight="1" s="3">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Submodel' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Submodel' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -6047,7 +6047,6 @@
       </c>
       <c r="D3" s="48" t="n"/>
     </row>
-    <row r="5"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -6096,7 +6095,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Compartment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Compartment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -8372,7 +8371,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='SpeciesType' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='SpeciesType' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -8542,7 +8541,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Species' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Species' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -8689,7 +8688,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="22" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DistributionInitConcentration' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DistributionInitConcentration' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="23" t="n"/>
